--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D86F70-DB3E-44EE-8180-F4156E2EE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315E3C1-1BAB-4CC5-83AA-90EA744E3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S3aH2,S2aH2</t>
-  </si>
-  <si>
-    <t>S1aH3,S2aH1,S3aH1,S2aH3,S1aH1,S3aH3</t>
+    <t>S2aH2,S1aH2,S3aH2</t>
+  </si>
+  <si>
+    <t>S2aH3,S3aH3,S2aH1,S3aH1,S1aH3,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH3,S2aH1,S3aH1,S2aH3,S1aH1,S3aH3</v>
+        <v>S2aH3,S3aH3,S2aH1,S3aH1,S1aH3,S1aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S3aH2,S2aH2</v>
+        <v>S2aH2,S1aH2,S3aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0469D876-92F5-49CB-B1E6-8FBD8E5131CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BCE78-021D-46BA-A1C5-5B2799760EFE}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85212FFC-2532-42E8-A228-C7B7CE17AAD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6F316-8A1A-4AA2-82E2-F587CCF2ECA1}">
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0F2019-0C6E-4D0C-9926-C5D54873E95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC703677-7465-4CBA-A3D1-5C5020C7FC30}">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315E3C1-1BAB-4CC5-83AA-90EA744E3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB44F6-E927-4742-946F-B64966F4A8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH2,S1aH2,S3aH2</t>
-  </si>
-  <si>
-    <t>S2aH3,S3aH3,S2aH1,S3aH1,S1aH3,S1aH1</t>
+    <t>S1aH2,S3aH2,S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3,S1aH3,S1aH1,S3aH1,S3aH3,S2aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH3,S3aH3,S2aH1,S3aH1,S1aH3,S1aH1</v>
+        <v>S2aH3,S1aH3,S1aH1,S3aH1,S3aH3,S2aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH2,S1aH2,S3aH2</v>
+        <v>S1aH2,S3aH2,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BCE78-021D-46BA-A1C5-5B2799760EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49120D8D-4A84-4D7D-B361-58E481DB5FC2}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6F316-8A1A-4AA2-82E2-F587CCF2ECA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34220BE9-3630-4B58-B9DE-D82579915C45}">
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1727,7 +1727,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>0.18498107227748917</v>
+        <v>0.18498107227748919</v>
       </c>
       <c r="O4" t="s">
         <v>110</v>
@@ -1759,10 +1759,10 @@
         <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.59772867329870583</v>
+        <v>0.41729025442380496</v>
       </c>
       <c r="O5" t="s">
         <v>110</v>
@@ -1794,10 +1794,10 @@
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380491</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O6" t="s">
         <v>110</v>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC703677-7465-4CBA-A3D1-5C5020C7FC30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A939A8E0-937B-43B6-938C-C04E8B325B34}">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB44F6-E927-4742-946F-B64966F4A8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F9858-94FF-4F18-837C-A054E4877DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S3aH2,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH3,S1aH3,S1aH1,S3aH1,S3aH3,S2aH1</t>
+    <t>S3aH2,S2aH2,S1aH2</t>
+  </si>
+  <si>
+    <t>S2aH3,S3aH3,S3aH1,S2aH1,S1aH1,S1aH3</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH3,S1aH3,S1aH1,S3aH1,S3aH3,S2aH1</v>
+        <v>S2aH3,S3aH3,S3aH1,S2aH1,S1aH1,S1aH3</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S3aH2,S2aH2</v>
+        <v>S3aH2,S2aH2,S1aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49120D8D-4A84-4D7D-B361-58E481DB5FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCB289D-D39C-4A37-A43E-155685CD1BE6}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34220BE9-3630-4B58-B9DE-D82579915C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58332451-0F6E-4A6A-9E7C-9913443B7E89}">
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1724,10 +1724,10 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.18498107227748919</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O4" t="s">
         <v>110</v>
@@ -1759,10 +1759,10 @@
         <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380496</v>
+        <v>0.18498107227748917</v>
       </c>
       <c r="O5" t="s">
         <v>110</v>
@@ -1794,10 +1794,10 @@
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.59772867329870583</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O6" t="s">
         <v>110</v>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A939A8E0-937B-43B6-938C-C04E8B325B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BAB116-57B0-4538-AD50-4678CC76D781}">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F9858-94FF-4F18-837C-A054E4877DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35DAAC-6E8D-4F1B-9610-994031F58DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S2aH2,S1aH2</t>
-  </si>
-  <si>
-    <t>S2aH3,S3aH3,S3aH1,S2aH1,S1aH1,S1aH3</t>
+    <t>S1aH2,S3aH2,S2aH2</t>
+  </si>
+  <si>
+    <t>S1aH3,S3aH1,S2aH3,S2aH1,S1aH1,S3aH3</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH3,S3aH3,S3aH1,S2aH1,S1aH1,S1aH3</v>
+        <v>S1aH3,S3aH1,S2aH3,S2aH1,S1aH1,S3aH3</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S2aH2,S1aH2</v>
+        <v>S1aH2,S3aH2,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCB289D-D39C-4A37-A43E-155685CD1BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9B6E3-D08D-4BF5-A299-F2ED4691F13A}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58332451-0F6E-4A6A-9E7C-9913443B7E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8B4D0A-2E64-46D7-AAAC-3111F870D2FA}">
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1759,10 +1759,10 @@
         <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.18498107227748917</v>
+        <v>0.41729025442380496</v>
       </c>
       <c r="O5" t="s">
         <v>110</v>
@@ -1794,10 +1794,10 @@
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380491</v>
+        <v>0.18498107227748919</v>
       </c>
       <c r="O6" t="s">
         <v>110</v>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BAB116-57B0-4538-AD50-4678CC76D781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745841D6-A227-4D2D-AF25-383532D25CB6}">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
